--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.07094180128202</v>
+        <v>8.405597999999999</v>
       </c>
       <c r="H2">
-        <v>8.07094180128202</v>
+        <v>25.216794</v>
       </c>
       <c r="I2">
-        <v>0.3166655429990466</v>
+        <v>0.3214983278049074</v>
       </c>
       <c r="J2">
-        <v>0.3166655429990466</v>
+        <v>0.3214983278049074</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.7276165460023</v>
+        <v>35.337883</v>
       </c>
       <c r="N2">
-        <v>20.7276165460023</v>
+        <v>106.013649</v>
       </c>
       <c r="O2">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="P2">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="Q2">
-        <v>167.2913868220748</v>
+        <v>297.036038669034</v>
       </c>
       <c r="R2">
-        <v>167.2913868220748</v>
+        <v>2673.324348021306</v>
       </c>
       <c r="S2">
-        <v>0.09084538719132433</v>
+        <v>0.1275779677540396</v>
       </c>
       <c r="T2">
-        <v>0.09084538719132433</v>
+        <v>0.1275779677540396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.07094180128202</v>
+        <v>8.405597999999999</v>
       </c>
       <c r="H3">
-        <v>8.07094180128202</v>
+        <v>25.216794</v>
       </c>
       <c r="I3">
-        <v>0.3166655429990466</v>
+        <v>0.3214983278049074</v>
       </c>
       <c r="J3">
-        <v>0.3166655429990466</v>
+        <v>0.3214983278049074</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3929563582402</v>
+        <v>40.49537033333333</v>
       </c>
       <c r="N3">
-        <v>40.3929563582402</v>
+        <v>121.486111</v>
       </c>
       <c r="O3">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013757</v>
       </c>
       <c r="P3">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013756</v>
       </c>
       <c r="Q3">
-        <v>326.0091999490812</v>
+        <v>340.387803883126</v>
       </c>
       <c r="R3">
-        <v>326.0091999490812</v>
+        <v>3063.490234948134</v>
       </c>
       <c r="S3">
-        <v>0.1770350079577447</v>
+        <v>0.1461976952771588</v>
       </c>
       <c r="T3">
-        <v>0.1770350079577447</v>
+        <v>0.1461976952771588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.07094180128202</v>
+        <v>8.405597999999999</v>
       </c>
       <c r="H4">
-        <v>8.07094180128202</v>
+        <v>25.216794</v>
       </c>
       <c r="I4">
-        <v>0.3166655429990466</v>
+        <v>0.3214983278049074</v>
       </c>
       <c r="J4">
-        <v>0.3166655429990466</v>
+        <v>0.3214983278049074</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.1309981611365</v>
+        <v>13.218724</v>
       </c>
       <c r="N4">
-        <v>11.1309981611365</v>
+        <v>39.656172</v>
       </c>
       <c r="O4">
-        <v>0.1540589082978456</v>
+        <v>0.1484382985738831</v>
       </c>
       <c r="P4">
-        <v>0.1540589082978456</v>
+        <v>0.148438298573883</v>
       </c>
       <c r="Q4">
-        <v>89.83763834870987</v>
+        <v>111.111280016952</v>
       </c>
       <c r="R4">
-        <v>89.83763834870987</v>
+        <v>1000.001520152568</v>
       </c>
       <c r="S4">
-        <v>0.04878514784997761</v>
+        <v>0.04772266477370898</v>
       </c>
       <c r="T4">
-        <v>0.04878514784997761</v>
+        <v>0.04772266477370898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4805449021856</v>
+        <v>12.54617866666667</v>
       </c>
       <c r="H5">
-        <v>12.4805449021856</v>
+        <v>37.638536</v>
       </c>
       <c r="I5">
-        <v>0.4896774906426422</v>
+        <v>0.4798677573772784</v>
       </c>
       <c r="J5">
-        <v>0.4896774906426422</v>
+        <v>0.4798677573772784</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.7276165460023</v>
+        <v>35.337883</v>
       </c>
       <c r="N5">
-        <v>20.7276165460023</v>
+        <v>106.013649</v>
       </c>
       <c r="O5">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="P5">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="Q5">
-        <v>258.6919490176668</v>
+        <v>443.3553938197627</v>
       </c>
       <c r="R5">
-        <v>258.6919490176668</v>
+        <v>3990.198544377864</v>
       </c>
       <c r="S5">
-        <v>0.1404792602788516</v>
+        <v>0.1904226180424546</v>
       </c>
       <c r="T5">
-        <v>0.1404792602788516</v>
+        <v>0.1904226180424545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4805449021856</v>
+        <v>12.54617866666667</v>
       </c>
       <c r="H6">
-        <v>12.4805449021856</v>
+        <v>37.638536</v>
       </c>
       <c r="I6">
-        <v>0.4896774906426422</v>
+        <v>0.4798677573772784</v>
       </c>
       <c r="J6">
-        <v>0.4896774906426422</v>
+        <v>0.4798677573772784</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.3929563582402</v>
+        <v>40.49537033333333</v>
       </c>
       <c r="N6">
-        <v>40.3929563582402</v>
+        <v>121.486111</v>
       </c>
       <c r="O6">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013757</v>
       </c>
       <c r="P6">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013756</v>
       </c>
       <c r="Q6">
-        <v>504.1261055610401</v>
+        <v>508.0621513748329</v>
       </c>
       <c r="R6">
-        <v>504.1261055610401</v>
+        <v>4572.559362373496</v>
       </c>
       <c r="S6">
-        <v>0.2737590507373567</v>
+        <v>0.2182143858892758</v>
       </c>
       <c r="T6">
-        <v>0.2737590507373567</v>
+        <v>0.2182143858892757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4805449021856</v>
+        <v>12.54617866666667</v>
       </c>
       <c r="H7">
-        <v>12.4805449021856</v>
+        <v>37.638536</v>
       </c>
       <c r="I7">
-        <v>0.4896774906426422</v>
+        <v>0.4798677573772784</v>
       </c>
       <c r="J7">
-        <v>0.4896774906426422</v>
+        <v>0.4798677573772784</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1309981611365</v>
+        <v>13.218724</v>
       </c>
       <c r="N7">
-        <v>11.1309981611365</v>
+        <v>39.656172</v>
       </c>
       <c r="O7">
-        <v>0.1540589082978456</v>
+        <v>0.1484382985738831</v>
       </c>
       <c r="P7">
-        <v>0.1540589082978456</v>
+        <v>0.148438298573883</v>
       </c>
       <c r="Q7">
-        <v>138.9209223562094</v>
+        <v>165.8444730493547</v>
       </c>
       <c r="R7">
-        <v>138.9209223562094</v>
+        <v>1492.600257444192</v>
       </c>
       <c r="S7">
-        <v>0.07543917962643398</v>
+        <v>0.07123075344554813</v>
       </c>
       <c r="T7">
-        <v>0.07543917962643398</v>
+        <v>0.07123075344554812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.93578837182</v>
+        <v>5.193298666666666</v>
       </c>
       <c r="H8">
-        <v>4.93578837182</v>
+        <v>15.579896</v>
       </c>
       <c r="I8">
-        <v>0.1936569663583113</v>
+        <v>0.1986339148178141</v>
       </c>
       <c r="J8">
-        <v>0.1936569663583113</v>
+        <v>0.1986339148178141</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.7276165460023</v>
+        <v>35.337883</v>
       </c>
       <c r="N8">
-        <v>20.7276165460023</v>
+        <v>106.013649</v>
       </c>
       <c r="O8">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="P8">
-        <v>0.2868811880539773</v>
+        <v>0.3968231145247413</v>
       </c>
       <c r="Q8">
-        <v>102.307128723302</v>
+        <v>183.5201806667226</v>
       </c>
       <c r="R8">
-        <v>102.307128723302</v>
+        <v>1651.681626000504</v>
       </c>
       <c r="S8">
-        <v>0.05555654058380147</v>
+        <v>0.07882252872824716</v>
       </c>
       <c r="T8">
-        <v>0.05555654058380147</v>
+        <v>0.07882252872824716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.93578837182</v>
+        <v>5.193298666666666</v>
       </c>
       <c r="H9">
-        <v>4.93578837182</v>
+        <v>15.579896</v>
       </c>
       <c r="I9">
-        <v>0.1936569663583113</v>
+        <v>0.1986339148178141</v>
       </c>
       <c r="J9">
-        <v>0.1936569663583113</v>
+        <v>0.1986339148178141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.3929563582402</v>
+        <v>40.49537033333333</v>
       </c>
       <c r="N9">
-        <v>40.3929563582402</v>
+        <v>121.486111</v>
       </c>
       <c r="O9">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013757</v>
       </c>
       <c r="P9">
-        <v>0.559059903648177</v>
+        <v>0.4547385869013756</v>
       </c>
       <c r="Q9">
-        <v>199.3710842964347</v>
+        <v>210.3045527582729</v>
       </c>
       <c r="R9">
-        <v>199.3710842964347</v>
+        <v>1892.740974824456</v>
       </c>
       <c r="S9">
-        <v>0.1082658449530758</v>
+        <v>0.09032650573494103</v>
       </c>
       <c r="T9">
-        <v>0.1082658449530758</v>
+        <v>0.090326505734941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.93578837182</v>
+        <v>5.193298666666666</v>
       </c>
       <c r="H10">
-        <v>4.93578837182</v>
+        <v>15.579896</v>
       </c>
       <c r="I10">
-        <v>0.1936569663583113</v>
+        <v>0.1986339148178141</v>
       </c>
       <c r="J10">
-        <v>0.1936569663583113</v>
+        <v>0.1986339148178141</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.1309981611365</v>
+        <v>13.218724</v>
       </c>
       <c r="N10">
-        <v>11.1309981611365</v>
+        <v>39.656172</v>
       </c>
       <c r="O10">
-        <v>0.1540589082978456</v>
+        <v>0.1484382985738831</v>
       </c>
       <c r="P10">
-        <v>0.1540589082978456</v>
+        <v>0.148438298573883</v>
       </c>
       <c r="Q10">
-        <v>54.94025129048734</v>
+        <v>68.64878172423467</v>
       </c>
       <c r="R10">
-        <v>54.94025129048734</v>
+        <v>617.8390355181119</v>
       </c>
       <c r="S10">
-        <v>0.02983458082143406</v>
+        <v>0.02948488035462595</v>
       </c>
       <c r="T10">
-        <v>0.02983458082143406</v>
+        <v>0.02948488035462594</v>
       </c>
     </row>
   </sheetData>
